--- a/UpperBasinConsumptiveUses/(1) Upper Colorado River Basin Depletions.xlsx
+++ b/UpperBasinConsumptiveUses/(1) Upper Colorado River Basin Depletions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Future_of_the_Colorado_River_Project\UpperBasinConsumptiveUses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\JianCode\Future_of_the_Colorado_River_Project\UpperBasinConsumptiveUses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B6C6BE-10DB-4C29-8106-58D04443B135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46224295-1CC9-443B-B6AA-EF5535D534DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="14" r:id="rId1"/>
@@ -6973,7 +6973,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{54F83523-112C-4D96-9BA5-1364D6D19D8B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6984,7 +6984,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="12991042" cy="9419167"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7342,12 +7342,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.18124</cdr:x>
-      <cdr:y>0.65309</cdr:y>
+      <cdr:x>0.17615</cdr:x>
+      <cdr:y>0.66854</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.2681</cdr:x>
-      <cdr:y>0.71435</cdr:y>
+      <cdr:x>0.40733</cdr:x>
+      <cdr:y>0.7298</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7362,8 +7362,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1652483" y="3081174"/>
-          <a:ext cx="791967" cy="289016"/>
+          <a:off x="2288350" y="6297085"/>
+          <a:ext cx="3003317" cy="577018"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7483,8 +7483,13 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Actual use</a:t>
+            <a:t>BOR Consumptive Use and</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> Losses Report</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -9049,15 +9054,15 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.36328125" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -9065,7 +9070,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>98</v>
       </c>
@@ -9073,28 +9078,28 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
@@ -9103,7 +9108,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>44</v>
       </c>
@@ -9111,7 +9116,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>104</v>
       </c>
@@ -9119,7 +9124,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
@@ -9127,7 +9132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>96</v>
       </c>
@@ -9135,7 +9140,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>97</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>106</v>
       </c>
@@ -9151,7 +9156,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>108</v>
       </c>
@@ -9159,7 +9164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -9187,7 +9192,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -9201,7 +9206,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
         <v>19</v>
       </c>
@@ -9229,7 +9234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -9243,7 +9248,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>57</v>
       </c>
@@ -9257,7 +9262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -9271,7 +9276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>83</v>
       </c>
@@ -9285,7 +9290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>84</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>116</v>
       </c>
@@ -9334,33 +9339,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABA40DF-0866-47B6-B050-3425248E9CA3}">
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="8"/>
+    <col min="4" max="4" width="12.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="8"/>
     <col min="7" max="7" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="8"/>
     <col min="10" max="10" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="8"/>
-    <col min="13" max="13" width="14.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="8"/>
-    <col min="16" max="16" width="14.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="8"/>
+    <col min="11" max="11" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" style="8"/>
+    <col min="13" max="13" width="14.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" style="8"/>
+    <col min="16" max="16" width="14.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>61</v>
       </c>
@@ -9385,10 +9390,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
     </row>
-    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -11632,13 +11637,13 @@
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>150</v>
       </c>
       <c r="Q61" s="18"/>
     </row>
-    <row r="62" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>1</v>
       </c>
@@ -13584,7 +13589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>1</v>
       </c>
@@ -15527,7 +15532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
         <v>1</v>
       </c>
@@ -17482,18 +17487,18 @@
       <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" customWidth="1"/>
+    <col min="17" max="17" width="14.54296875" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" customWidth="1"/>
+    <col min="19" max="21" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="23" t="s">
         <v>60</v>
@@ -17520,7 +17525,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
@@ -17576,7 +17581,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -17637,7 +17642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1970</v>
       </c>
@@ -17662,7 +17667,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="23"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1971</v>
       </c>
@@ -17690,7 +17695,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="23"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1972</v>
       </c>
@@ -17718,7 +17723,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="23"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1973</v>
       </c>
@@ -17746,7 +17751,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="23"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1974</v>
       </c>
@@ -17774,7 +17779,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="23"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1975</v>
       </c>
@@ -17802,7 +17807,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="23"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1976</v>
       </c>
@@ -17830,7 +17835,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="23"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1977</v>
       </c>
@@ -17858,7 +17863,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="23"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1978</v>
       </c>
@@ -17886,7 +17891,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="23"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1979</v>
       </c>
@@ -17914,7 +17919,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="23"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1980</v>
       </c>
@@ -17945,7 +17950,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="23"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1981</v>
       </c>
@@ -17976,7 +17981,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="23"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1982</v>
       </c>
@@ -18007,7 +18012,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="23"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1983</v>
       </c>
@@ -18041,7 +18046,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="23"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1984</v>
       </c>
@@ -18075,7 +18080,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="23"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1985</v>
       </c>
@@ -18109,7 +18114,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="23"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1986</v>
       </c>
@@ -18143,7 +18148,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="23"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1987</v>
       </c>
@@ -18177,7 +18182,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="23"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1988</v>
       </c>
@@ -18211,7 +18216,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="23"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1989</v>
       </c>
@@ -18245,7 +18250,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="23"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1990</v>
       </c>
@@ -18279,7 +18284,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="23"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1991</v>
       </c>
@@ -18313,7 +18318,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="23"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1992</v>
       </c>
@@ -18347,7 +18352,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="23"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1993</v>
       </c>
@@ -18381,7 +18386,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="23"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1994</v>
       </c>
@@ -18415,7 +18420,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="23"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1995</v>
       </c>
@@ -18449,7 +18454,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="23"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1996</v>
       </c>
@@ -18483,7 +18488,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="23"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1997</v>
       </c>
@@ -18517,7 +18522,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="23"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1998</v>
       </c>
@@ -18551,7 +18556,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="23"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1999</v>
       </c>
@@ -18585,7 +18590,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="23"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2000</v>
       </c>
@@ -18631,7 +18636,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2001</v>
       </c>
@@ -18677,7 +18682,7 @@
         <v>3.9889999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2002</v>
       </c>
@@ -18726,7 +18731,7 @@
         <v>4.0190000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2003</v>
       </c>
@@ -18775,7 +18780,7 @@
         <v>4.048</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2004</v>
       </c>
@@ -18824,7 +18829,7 @@
         <v>4.0780000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2005</v>
       </c>
@@ -18873,7 +18878,7 @@
         <v>4.1070000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2006</v>
       </c>
@@ -18922,7 +18927,7 @@
         <v>4.1369999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2007</v>
       </c>
@@ -18971,7 +18976,7 @@
         <v>4.1669999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2008</v>
       </c>
@@ -19020,7 +19025,7 @@
         <v>4.1959999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2009</v>
       </c>
@@ -19069,7 +19074,7 @@
         <v>4.226</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2010</v>
       </c>
@@ -19121,7 +19126,7 @@
         <v>4.3739999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2011</v>
       </c>
@@ -19194,7 +19199,7 @@
         <v>4.3920000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2012</v>
       </c>
@@ -19267,7 +19272,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2013</v>
       </c>
@@ -19340,7 +19345,7 @@
         <v>4.4279999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2014</v>
       </c>
@@ -19413,7 +19418,7 @@
         <v>4.4459999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2015</v>
       </c>
@@ -19486,7 +19491,7 @@
         <v>4.4640000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2016</v>
       </c>
@@ -19559,7 +19564,7 @@
         <v>4.4820000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2017</v>
       </c>
@@ -19632,7 +19637,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2018</v>
       </c>
@@ -19705,7 +19710,7 @@
         <v>4.5179999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2019</v>
       </c>
@@ -19775,7 +19780,7 @@
         <v>4.5359999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2020</v>
       </c>
@@ -19848,7 +19853,7 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2021</v>
       </c>
@@ -19921,7 +19926,7 @@
         <v>4.6239999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2022</v>
       </c>
@@ -19994,7 +19999,7 @@
         <v>4.6379999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2023</v>
       </c>
@@ -20067,7 +20072,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2024</v>
       </c>
@@ -20140,7 +20145,7 @@
         <v>4.6660000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2025</v>
       </c>
@@ -20213,7 +20218,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2026</v>
       </c>
@@ -20286,7 +20291,7 @@
         <v>4.6929999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2027</v>
       </c>
@@ -20359,7 +20364,7 @@
         <v>4.7069999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2028</v>
       </c>
@@ -20432,7 +20437,7 @@
         <v>4.7210000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2029</v>
       </c>
@@ -20505,7 +20510,7 @@
         <v>4.7350000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2030</v>
       </c>
@@ -20578,7 +20583,7 @@
         <v>4.7489999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2031</v>
       </c>
@@ -20651,7 +20656,7 @@
         <v>4.766</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2032</v>
       </c>
@@ -20724,7 +20729,7 @@
         <v>4.7839999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2033</v>
       </c>
@@ -20797,7 +20802,7 @@
         <v>4.8010000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2034</v>
       </c>
@@ -20870,7 +20875,7 @@
         <v>4.8179999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2035</v>
       </c>
@@ -20943,7 +20948,7 @@
         <v>4.8360000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2036</v>
       </c>
@@ -21016,7 +21021,7 @@
         <v>4.8529999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2037</v>
       </c>
@@ -21089,7 +21094,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2038</v>
       </c>
@@ -21162,7 +21167,7 @@
         <v>4.8869999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2039</v>
       </c>
@@ -21235,7 +21240,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2040</v>
       </c>
@@ -21308,7 +21313,7 @@
         <v>4.9290000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2041</v>
       </c>
@@ -21378,7 +21383,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2042</v>
       </c>
@@ -21448,7 +21453,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2043</v>
       </c>
@@ -21518,7 +21523,7 @@
         <v>4.9909999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2044</v>
       </c>
@@ -21588,7 +21593,7 @@
         <v>5.0119999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2045</v>
       </c>
@@ -21658,7 +21663,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2046</v>
       </c>
@@ -21728,7 +21733,7 @@
         <v>5.0529999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2047</v>
       </c>
@@ -21798,7 +21803,7 @@
         <v>5.0739999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2048</v>
       </c>
@@ -21868,7 +21873,7 @@
         <v>5.0828783457369369</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2049</v>
       </c>
@@ -21938,7 +21943,7 @@
         <v>5.0907461095692259</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2050</v>
       </c>
@@ -22008,7 +22013,7 @@
         <v>5.0986138734015096</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2051</v>
       </c>
@@ -22072,7 +22077,7 @@
         <v>5.1035599247176044</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2052</v>
       </c>
@@ -22136,7 +22141,7 @@
         <v>5.1085059760336975</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2053</v>
       </c>
@@ -22200,7 +22205,7 @@
         <v>5.113452027349787</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2054</v>
       </c>
@@ -22264,7 +22269,7 @@
         <v>5.1183980786658809</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2055</v>
       </c>
@@ -22328,7 +22333,7 @@
         <v>5.123344129981974</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2056</v>
       </c>
@@ -22392,7 +22397,7 @@
         <v>5.1282901812980661</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2057</v>
       </c>
@@ -22456,7 +22461,7 @@
         <v>5.1332362326141592</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2058</v>
       </c>
@@ -22520,7 +22525,7 @@
         <v>5.1381822839302531</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2059</v>
       </c>
@@ -22584,7 +22589,7 @@
         <v>5.1431283352463462</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>2060</v>
       </c>
@@ -22648,7 +22653,7 @@
         <v>5.1480743865624401</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -22672,19 +22677,19 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.08984375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B1" s="23" t="s">
         <v>69</v>
       </c>
@@ -22698,7 +22703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>50</v>
       </c>
@@ -22715,7 +22720,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1970</v>
       </c>
@@ -22724,7 +22729,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>1971</v>
       </c>
@@ -22741,7 +22746,7 @@
         <v>3393.3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1972</v>
       </c>
@@ -22756,7 +22761,7 @@
         <v>3456.6</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1973</v>
       </c>
@@ -22777,7 +22782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1974</v>
       </c>
@@ -22792,7 +22797,7 @@
         <v>3810.7999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1975</v>
       </c>
@@ -22820,7 +22825,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1976</v>
       </c>
@@ -22848,7 +22853,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1977</v>
       </c>
@@ -22876,7 +22881,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1978</v>
       </c>
@@ -22904,7 +22909,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1979</v>
       </c>
@@ -22919,7 +22924,7 @@
         <v>3877.7</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1980</v>
       </c>
@@ -22934,7 +22939,7 @@
         <v>3907.8999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1981</v>
       </c>
@@ -22949,7 +22954,7 @@
         <v>4113.3999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1982</v>
       </c>
@@ -22964,7 +22969,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1983</v>
       </c>
@@ -22979,7 +22984,7 @@
         <v>4076.6</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1984</v>
       </c>
@@ -22994,7 +22999,7 @@
         <v>3977.2000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1985</v>
       </c>
@@ -23009,7 +23014,7 @@
         <v>4243.2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1986</v>
       </c>
@@ -23024,7 +23029,7 @@
         <v>4130.2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1987</v>
       </c>
@@ -23064,7 +23069,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1988</v>
       </c>
@@ -23104,7 +23109,7 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1989</v>
       </c>
@@ -23122,7 +23127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1990</v>
       </c>
@@ -23211,7 +23216,7 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1991</v>
       </c>
@@ -23300,7 +23305,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1992</v>
       </c>
@@ -23389,7 +23394,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1993</v>
       </c>
@@ -23501,7 +23506,7 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1994</v>
       </c>
@@ -23542,7 +23547,7 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>1995</v>
       </c>
@@ -23585,7 +23590,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1996</v>
       </c>
@@ -23680,7 +23685,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1997</v>
       </c>
@@ -23773,7 +23778,7 @@
         <v>648.9</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1998</v>
       </c>
@@ -23866,7 +23871,7 @@
         <v>3366.3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1999</v>
       </c>
@@ -23984,7 +23989,7 @@
         <v>4015.2000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2000</v>
       </c>
@@ -23999,7 +24004,7 @@
         <v>4618</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2001</v>
       </c>
@@ -24017,7 +24022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2002</v>
       </c>
@@ -24032,7 +24037,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2003</v>
       </c>
@@ -24047,7 +24052,7 @@
         <v>4217.7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2004</v>
       </c>
@@ -24062,7 +24067,7 @@
         <v>3905.8999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>2005</v>
       </c>
@@ -24077,7 +24082,7 @@
         <v>4039.8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2006</v>
       </c>
@@ -24092,7 +24097,7 @@
         <v>4280.8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2007</v>
       </c>
@@ -24107,7 +24112,7 @@
         <v>4549.1000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2008</v>
       </c>
@@ -24122,7 +24127,7 @@
         <v>4653.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2009</v>
       </c>
@@ -24137,7 +24142,7 @@
         <v>4583.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2010</v>
       </c>
@@ -24152,7 +24157,7 @@
         <v>4428.2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2011</v>
       </c>
@@ -24167,7 +24172,7 @@
         <v>4486.3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2012</v>
       </c>
@@ -24182,7 +24187,7 @@
         <v>4823.1000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2013</v>
       </c>
@@ -24197,7 +24202,7 @@
         <v>4082.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -24212,7 +24217,7 @@
         <v>3918.7999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -24227,7 +24232,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -24242,7 +24247,7 @@
         <v>4365.8</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
@@ -24257,7 +24262,7 @@
         <v>4679.5999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2018</v>
       </c>
@@ -24272,7 +24277,7 @@
         <v>4817.2</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2019</v>
       </c>
@@ -24280,7 +24285,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2020</v>
       </c>
@@ -24288,56 +24293,56 @@
       <c r="D53" s="7"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2021</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2022</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2023</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2024</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2025</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2026</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2027</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2028</v>
       </c>
@@ -24354,224 +24359,224 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2029</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2030</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2031</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2032</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2033</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2034</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2035</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2036</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2037</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2038</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2039</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2040</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2041</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2042</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2043</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2044</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2045</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2046</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2047</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2048</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2049</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2050</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2051</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2052</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2053</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2054</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2055</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2056</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2057</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2058</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2059</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2060</v>
       </c>
@@ -24596,12 +24601,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>50</v>
       </c>
@@ -24612,7 +24617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -24623,7 +24628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -24634,7 +24639,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -24642,7 +24647,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -24653,7 +24658,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -24661,7 +24666,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -24669,7 +24674,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -24677,7 +24682,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -24685,7 +24690,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -24693,7 +24698,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -24701,7 +24706,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -24709,7 +24714,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -24717,7 +24722,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -24725,7 +24730,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -24733,7 +24738,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -24741,7 +24746,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -24749,7 +24754,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -24757,7 +24762,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -24765,7 +24770,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -24773,7 +24778,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
@@ -24781,7 +24786,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -24789,7 +24794,7 @@
         <v>4610</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
@@ -24797,7 +24802,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2022</v>
       </c>
@@ -24805,7 +24810,7 @@
         <v>4638</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2023</v>
       </c>
@@ -24813,7 +24818,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2024</v>
       </c>
@@ -24821,7 +24826,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2025</v>
       </c>
@@ -24829,7 +24834,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2026</v>
       </c>
@@ -24837,7 +24842,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2027</v>
       </c>
@@ -24845,7 +24850,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2028</v>
       </c>
@@ -24853,7 +24858,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2029</v>
       </c>
@@ -24861,7 +24866,7 @@
         <v>4735</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2030</v>
       </c>
@@ -24869,7 +24874,7 @@
         <v>4749</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2031</v>
       </c>
@@ -24877,7 +24882,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2032</v>
       </c>
@@ -24885,7 +24890,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2033</v>
       </c>
@@ -24893,7 +24898,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2034</v>
       </c>
@@ -24901,7 +24906,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2035</v>
       </c>
@@ -24909,7 +24914,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2036</v>
       </c>
@@ -24917,7 +24922,7 @@
         <v>4853</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2037</v>
       </c>
@@ -24925,7 +24930,7 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2038</v>
       </c>
@@ -24933,7 +24938,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2039</v>
       </c>
@@ -24941,7 +24946,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2040</v>
       </c>
@@ -24949,7 +24954,7 @@
         <v>4929</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2041</v>
       </c>
@@ -24957,7 +24962,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2042</v>
       </c>
@@ -24965,7 +24970,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2043</v>
       </c>
@@ -24973,7 +24978,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2044</v>
       </c>
@@ -24981,7 +24986,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2045</v>
       </c>
@@ -24989,7 +24994,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2046</v>
       </c>
@@ -24997,7 +25002,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2047</v>
       </c>
@@ -25005,7 +25010,7 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2048</v>
       </c>
@@ -25013,7 +25018,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2049</v>
       </c>
@@ -25021,7 +25026,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2050</v>
       </c>
@@ -25029,52 +25034,52 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2051</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2052</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2053</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2054</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2055</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2056</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2057</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2058</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2059</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2060</v>
       </c>
@@ -25097,33 +25102,33 @@
       <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.21875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>65</v>
       </c>
@@ -25155,7 +25160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>50</v>
       </c>
@@ -25196,7 +25201,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -25237,7 +25242,7 @@
         <v>4847</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2003</v>
       </c>
@@ -25278,7 +25283,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2004</v>
       </c>
@@ -25319,7 +25324,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2005</v>
       </c>
@@ -25360,7 +25365,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -25401,7 +25406,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2007</v>
       </c>
@@ -25442,7 +25447,7 @@
         <v>5084</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -25483,7 +25488,7 @@
         <v>5117</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -25524,7 +25529,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2010</v>
       </c>
@@ -25565,7 +25570,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2011</v>
       </c>
@@ -25606,7 +25611,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -25647,7 +25652,7 @@
         <v>5303</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -25688,7 +25693,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2014</v>
       </c>
@@ -25729,7 +25734,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2015</v>
       </c>
@@ -25770,7 +25775,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -25811,7 +25816,7 @@
         <v>5353</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -25852,7 +25857,7 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
@@ -25893,7 +25898,7 @@
         <v>5378</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2019</v>
       </c>
@@ -25934,7 +25939,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2020</v>
       </c>
@@ -25975,7 +25980,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2021</v>
       </c>
@@ -26016,7 +26021,7 @@
         <v>5443</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2022</v>
       </c>
@@ -26057,7 +26062,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2023</v>
       </c>
@@ -26098,7 +26103,7 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2024</v>
       </c>
@@ -26139,7 +26144,7 @@
         <v>5485</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2025</v>
       </c>
@@ -26180,7 +26185,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2026</v>
       </c>
@@ -26221,7 +26226,7 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2027</v>
       </c>
@@ -26262,7 +26267,7 @@
         <v>5529</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2028</v>
       </c>
@@ -26303,7 +26308,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2029</v>
       </c>
@@ -26344,7 +26349,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2030</v>
       </c>
@@ -26385,7 +26390,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2031</v>
       </c>
@@ -26426,7 +26431,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2032</v>
       </c>
@@ -26467,7 +26472,7 @@
         <v>5626</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2033</v>
       </c>
@@ -26508,7 +26513,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2034</v>
       </c>
@@ -26549,7 +26554,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2035</v>
       </c>
@@ -26590,7 +26595,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2036</v>
       </c>
@@ -26631,7 +26636,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2037</v>
       </c>
@@ -26672,7 +26677,7 @@
         <v>5683</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2038</v>
       </c>
@@ -26713,7 +26718,7 @@
         <v>5694</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2039</v>
       </c>
@@ -26754,7 +26759,7 @@
         <v>5706</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2040</v>
       </c>
@@ -26795,7 +26800,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2041</v>
       </c>
@@ -26836,7 +26841,7 @@
         <v>5739</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2042</v>
       </c>
@@ -26877,7 +26882,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2043</v>
       </c>
@@ -26918,7 +26923,7 @@
         <v>5769</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2044</v>
       </c>
@@ -26959,7 +26964,7 @@
         <v>5784</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2045</v>
       </c>
@@ -27000,7 +27005,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2046</v>
       </c>
@@ -27041,7 +27046,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2047</v>
       </c>
@@ -27082,7 +27087,7 @@
         <v>5830</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2048</v>
       </c>
@@ -27123,7 +27128,7 @@
         <v>5845</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2049</v>
       </c>
@@ -27164,7 +27169,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2050</v>
       </c>
@@ -27205,52 +27210,52 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2051</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2052</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2053</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2054</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2055</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2056</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2057</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2058</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2059</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2060</v>
       </c>
@@ -27270,15 +27275,15 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="51" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="20" t="s">
         <v>62</v>
       </c>
@@ -27292,7 +27297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>67</v>
       </c>
@@ -27306,7 +27311,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -27322,7 +27327,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -27338,7 +27343,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2012</v>
       </c>
@@ -27354,7 +27359,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2013</v>
       </c>
@@ -27391,7 +27396,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -27428,7 +27433,7 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
@@ -27465,7 +27470,7 @@
         <v>5773</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -27502,7 +27507,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2017</v>
       </c>
@@ -27541,7 +27546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2018</v>
       </c>
@@ -27580,7 +27585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2019</v>
       </c>
@@ -27596,7 +27601,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2020</v>
       </c>
@@ -27612,7 +27617,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2021</v>
       </c>
@@ -27631,7 +27636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2022</v>
       </c>
@@ -27650,7 +27655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2023</v>
       </c>
@@ -27666,7 +27671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2024</v>
       </c>
@@ -27682,7 +27687,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2025</v>
       </c>
@@ -27698,7 +27703,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2026</v>
       </c>
@@ -27714,7 +27719,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2027</v>
       </c>
@@ -27730,7 +27735,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2028</v>
       </c>
@@ -27746,7 +27751,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2029</v>
       </c>
@@ -27762,7 +27767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2030</v>
       </c>
@@ -27778,7 +27783,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2031</v>
       </c>
@@ -27794,7 +27799,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2032</v>
       </c>
@@ -27810,7 +27815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2033</v>
       </c>
@@ -27826,7 +27831,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2034</v>
       </c>
@@ -27842,7 +27847,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2035</v>
       </c>
@@ -27858,7 +27863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2036</v>
       </c>
@@ -27874,7 +27879,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2037</v>
       </c>
@@ -27890,7 +27895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2038</v>
       </c>
@@ -27906,7 +27911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2039</v>
       </c>
@@ -27922,7 +27927,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2040</v>
       </c>
@@ -27938,7 +27943,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2041</v>
       </c>
@@ -27954,7 +27959,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2042</v>
       </c>
@@ -27970,7 +27975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2043</v>
       </c>
@@ -27986,7 +27991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2044</v>
       </c>
@@ -28002,7 +28007,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2045</v>
       </c>
@@ -28018,7 +28023,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2046</v>
       </c>
@@ -28034,7 +28039,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2047</v>
       </c>
@@ -28050,7 +28055,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2048</v>
       </c>
@@ -28066,7 +28071,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2049</v>
       </c>
@@ -28082,7 +28087,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2050</v>
       </c>
@@ -28098,7 +28103,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2051</v>
       </c>
@@ -28114,7 +28119,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2052</v>
       </c>
@@ -28130,7 +28135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2053</v>
       </c>
@@ -28146,7 +28151,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2054</v>
       </c>
@@ -28162,7 +28167,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2055</v>
       </c>
@@ -28178,7 +28183,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2056</v>
       </c>
@@ -28194,7 +28199,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2057</v>
       </c>
@@ -28210,7 +28215,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2058</v>
       </c>
@@ -28226,7 +28231,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2059</v>
       </c>
@@ -28242,7 +28247,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2060</v>
       </c>
@@ -28276,14 +28281,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="23" t="s">
         <v>69</v>
       </c>
@@ -28294,7 +28299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -28309,7 +28314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -28321,7 +28326,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
@@ -28349,7 +28354,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
@@ -28380,7 +28385,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2023</v>
       </c>
@@ -28410,7 +28415,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -28445,7 +28450,7 @@
         <v>5948</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2025</v>
       </c>
@@ -28477,7 +28482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2026</v>
       </c>
@@ -28490,7 +28495,7 @@
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2027</v>
       </c>
@@ -28502,7 +28507,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2028</v>
       </c>
@@ -28517,7 +28522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2029</v>
       </c>
@@ -28532,7 +28537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2030</v>
       </c>
@@ -28544,7 +28549,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2031</v>
       </c>
@@ -28556,7 +28561,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2032</v>
       </c>
@@ -28568,7 +28573,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2033</v>
       </c>
@@ -28580,7 +28585,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2034</v>
       </c>
@@ -28592,7 +28597,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2035</v>
       </c>
@@ -28604,7 +28609,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2036</v>
       </c>
@@ -28616,7 +28621,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2037</v>
       </c>
@@ -28628,7 +28633,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2038</v>
       </c>
@@ -28640,7 +28645,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2039</v>
       </c>
@@ -28652,7 +28657,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2040</v>
       </c>
@@ -28664,7 +28669,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2041</v>
       </c>
@@ -28676,7 +28681,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2042</v>
       </c>
@@ -28688,7 +28693,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2043</v>
       </c>
@@ -28700,7 +28705,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2044</v>
       </c>
@@ -28712,7 +28717,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2045</v>
       </c>
@@ -28724,7 +28729,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2046</v>
       </c>
@@ -28736,7 +28741,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2047</v>
       </c>
@@ -28748,7 +28753,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2048</v>
       </c>
@@ -28760,7 +28765,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2049</v>
       </c>
@@ -28772,7 +28777,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2050</v>
       </c>
@@ -28784,7 +28789,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2051</v>
       </c>
@@ -28796,7 +28801,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2052</v>
       </c>
@@ -28808,7 +28813,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2053</v>
       </c>
@@ -28820,7 +28825,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2054</v>
       </c>
@@ -28832,7 +28837,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2055</v>
       </c>
@@ -28844,7 +28849,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2056</v>
       </c>
@@ -28856,7 +28861,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2057</v>
       </c>
@@ -28868,7 +28873,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2058</v>
       </c>
@@ -28880,7 +28885,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2059</v>
       </c>
@@ -28892,7 +28897,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2060</v>
       </c>
@@ -28921,23 +28926,23 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
@@ -28954,7 +28959,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
       <c r="B3" s="23" t="s">
         <v>68</v>
@@ -28969,7 +28974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1980</v>
       </c>
@@ -28989,7 +28994,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
@@ -29012,7 +29017,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1982</v>
       </c>
@@ -29034,7 +29039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
@@ -29059,7 +29064,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1984</v>
       </c>
@@ -29084,7 +29089,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
@@ -29109,7 +29114,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1986</v>
       </c>
@@ -29134,7 +29139,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1987</v>
       </c>
@@ -29150,7 +29155,7 @@
         <v>4518.1999999999989</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1988</v>
       </c>
@@ -29166,7 +29171,7 @@
         <v>4594.7999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1989</v>
       </c>
@@ -29185,7 +29190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1990</v>
       </c>
@@ -29205,7 +29210,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1991</v>
       </c>
@@ -29221,7 +29226,7 @@
         <v>4804.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1992</v>
       </c>
@@ -29237,7 +29242,7 @@
         <v>4861.3999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1993</v>
       </c>
@@ -29253,7 +29258,7 @@
         <v>4918.0999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1994</v>
       </c>
@@ -29269,7 +29274,7 @@
         <v>4974.7999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1995</v>
       </c>
@@ -29285,7 +29290,7 @@
         <v>5031.4999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
@@ -29301,7 +29306,7 @@
         <v>5088.1999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1997</v>
       </c>
@@ -29317,7 +29322,7 @@
         <v>5144.8999999999987</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1998</v>
       </c>
@@ -29333,7 +29338,7 @@
         <v>5201.5999999999985</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1999</v>
       </c>
@@ -29349,7 +29354,7 @@
         <v>5258.2999999999984</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
@@ -29369,7 +29374,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
@@ -29385,7 +29390,7 @@
         <v>5347.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2002</v>
       </c>
@@ -29401,7 +29406,7 @@
         <v>5380.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
@@ -29417,7 +29422,7 @@
         <v>5413.4000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
@@ -29433,7 +29438,7 @@
         <v>5446.2000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
@@ -29449,7 +29454,7 @@
         <v>5479.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2006</v>
       </c>
@@ -29465,7 +29470,7 @@
         <v>5511.8000000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -29481,7 +29486,7 @@
         <v>5544.6000000000013</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
@@ -29497,7 +29502,7 @@
         <v>5577.4000000000015</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
@@ -29513,7 +29518,7 @@
         <v>5610.2000000000016</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
@@ -29529,154 +29534,154 @@
         <v>5643</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" s="3"/>
     </row>
   </sheetData>
@@ -29693,22 +29698,22 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
@@ -29725,7 +29730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
         <v>68</v>
       </c>
@@ -29739,7 +29744,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1983</v>
       </c>
@@ -29759,7 +29764,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1984</v>
       </c>
@@ -29776,7 +29781,7 @@
         <v>4096.1428571428569</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1985</v>
       </c>
@@ -29799,7 +29804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1986</v>
       </c>
@@ -29823,7 +29828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1987</v>
       </c>
@@ -29849,7 +29854,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1988</v>
       </c>
@@ -29875,7 +29880,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1989</v>
       </c>
@@ -29901,7 +29906,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1990</v>
       </c>
@@ -29930,7 +29935,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1991</v>
       </c>
@@ -29956,7 +29961,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1992</v>
       </c>
@@ -29982,7 +29987,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1993</v>
       </c>
@@ -30008,7 +30013,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1994</v>
       </c>
@@ -30025,7 +30030,7 @@
         <v>4850.2000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1995</v>
       </c>
@@ -30042,7 +30047,7 @@
         <v>4908.0000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1996</v>
       </c>
@@ -30059,7 +30064,7 @@
         <v>4965.8000000000011</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1997</v>
       </c>
@@ -30076,7 +30081,7 @@
         <v>5023.6000000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1998</v>
       </c>
@@ -30096,7 +30101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1999</v>
       </c>
@@ -30113,7 +30118,7 @@
         <v>5139.2000000000016</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2000</v>
       </c>
@@ -30133,7 +30138,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
@@ -30150,7 +30155,7 @@
         <v>5216.3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2002</v>
       </c>
@@ -30167,7 +30172,7 @@
         <v>5235.6000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2003</v>
       </c>
@@ -30184,7 +30189,7 @@
         <v>5254.9000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2004</v>
       </c>
@@ -30201,7 +30206,7 @@
         <v>5274.2000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2005</v>
       </c>
@@ -30218,7 +30223,7 @@
         <v>5293.5000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2006</v>
       </c>
@@ -30235,7 +30240,7 @@
         <v>5312.8000000000011</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -30252,7 +30257,7 @@
         <v>5332.1000000000013</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2008</v>
       </c>
@@ -30269,7 +30274,7 @@
         <v>5351.4000000000015</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2009</v>
       </c>
@@ -30286,7 +30291,7 @@
         <v>5370.7000000000016</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2010</v>
       </c>
@@ -30306,7 +30311,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2011</v>
       </c>
@@ -30323,7 +30328,7 @@
         <v>5403.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2012</v>
       </c>
@@ -30340,7 +30345,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2013</v>
       </c>
@@ -30357,7 +30362,7 @@
         <v>5430.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2014</v>
       </c>
@@ -30374,7 +30379,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2015</v>
       </c>
@@ -30391,7 +30396,7 @@
         <v>5457.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -30408,7 +30413,7 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2017</v>
       </c>
@@ -30425,7 +30430,7 @@
         <v>5484.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2018</v>
       </c>
@@ -30442,7 +30447,7 @@
         <v>5498</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2019</v>
       </c>
@@ -30459,7 +30464,7 @@
         <v>5511.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2020</v>
       </c>
@@ -30479,7 +30484,7 @@
         <v>5525</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2021</v>
       </c>
@@ -30496,7 +30501,7 @@
         <v>5534.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2022</v>
       </c>
@@ -30513,7 +30518,7 @@
         <v>5543.7999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2023</v>
       </c>
@@ -30530,7 +30535,7 @@
         <v>5553.1999999999989</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2024</v>
       </c>
@@ -30547,7 +30552,7 @@
         <v>5562.5999999999985</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2025</v>
       </c>
@@ -30564,7 +30569,7 @@
         <v>5571.9999999999982</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2026</v>
       </c>
@@ -30581,7 +30586,7 @@
         <v>5581.3999999999978</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2027</v>
       </c>
@@ -30598,7 +30603,7 @@
         <v>5590.7999999999975</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2028</v>
       </c>
@@ -30615,7 +30620,7 @@
         <v>5600.1999999999971</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2029</v>
       </c>
@@ -30632,7 +30637,7 @@
         <v>5609.5999999999967</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2030</v>
       </c>
@@ -30652,7 +30657,7 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2031</v>
       </c>
@@ -30669,7 +30674,7 @@
         <v>5637.1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2032</v>
       </c>
@@ -30686,7 +30691,7 @@
         <v>5655.2000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2033</v>
       </c>
@@ -30703,7 +30708,7 @@
         <v>5673.3000000000011</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2034</v>
       </c>
@@ -30720,7 +30725,7 @@
         <v>5691.4000000000015</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2035</v>
       </c>
@@ -30737,7 +30742,7 @@
         <v>5709.5000000000018</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2036</v>
       </c>
@@ -30754,7 +30759,7 @@
         <v>5727.6000000000022</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2037</v>
       </c>
@@ -30771,7 +30776,7 @@
         <v>5745.7000000000025</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2038</v>
       </c>
@@ -30788,7 +30793,7 @@
         <v>5763.8000000000029</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2039</v>
       </c>
@@ -30805,7 +30810,7 @@
         <v>5781.9000000000033</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2040</v>
       </c>
@@ -30822,64 +30827,64 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
     </row>
   </sheetData>
